--- a/category分布.xlsx
+++ b/category分布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="17055" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>早餐</t>
   </si>
@@ -118,6 +118,48 @@
   </si>
   <si>
     <t>具有补脾胃、强筋骨、益气血、活血化瘀的功效</t>
+  </si>
+  <si>
+    <t>糯米糍</t>
+  </si>
+  <si>
+    <t>糯米粉、豆沙馅、木薯粉、糖、牛奶</t>
+  </si>
+  <si>
+    <t>补充糖分、口感嫩滑</t>
+  </si>
+  <si>
+    <t>红烧肉</t>
+  </si>
+  <si>
+    <t>五花肉、姜、葱、冰糖、料酒、老抽</t>
+  </si>
+  <si>
+    <t>滋阴补肾、和胃健脾、润肺止咳、活血祛瘀</t>
+  </si>
+  <si>
+    <t>罗宋汤</t>
+  </si>
+  <si>
+    <t>火腿、土豆、洋葱、胡萝卜、番茄、胡椒粉、生抽</t>
+  </si>
+  <si>
+    <t>和胃健脾、扩张血管、消肿、解毒</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>星期二</t>
   </si>
 </sst>
 </file>
@@ -148,6 +190,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,7 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,70 +235,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,8 +249,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +295,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -276,16 +318,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,41 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,16 +606,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,137 +674,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,11 +820,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H24"/>
+  <dimension ref="A4:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1227,31 +1275,31 @@
       </c>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:8">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -1263,18 +1311,18 @@
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:8">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1286,18 +1334,18 @@
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -1320,7 +1368,7 @@
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -1332,18 +1380,18 @@
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>6</v>
       </c>
       <c r="B16" t="s">
@@ -1355,57 +1403,209 @@
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+    <row r="17" ht="26" customHeight="1" spans="1:8">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:8">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:8">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/category分布.xlsx
+++ b/category分布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17055" windowHeight="8880"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>早餐</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>晚</t>
+  </si>
+  <si>
+    <t>糕点</t>
+  </si>
+  <si>
+    <t>家常菜</t>
+  </si>
+  <si>
+    <t>面食</t>
+  </si>
+  <si>
+    <t>粥</t>
+  </si>
+  <si>
+    <t>汤</t>
   </si>
   <si>
     <t>星期二</t>
@@ -167,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,6 +212,96 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -213,39 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,66 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -348,31 +363,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,102 +537,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,48 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,17 +572,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +632,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -619,41 +669,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -662,149 +677,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,12 +839,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,17 +1189,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H35"/>
+  <dimension ref="A4:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
@@ -1417,23 +1427,23 @@
       <c r="A17" s="6">
         <v>7</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="1">
         <v>17</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1467,7 +1477,7 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1531,80 +1541,150 @@
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29"/>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5">
-        <v>3</v>
-      </c>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="5"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
+      <c r="B41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/category分布.xlsx
+++ b/category分布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="17055" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>早餐</t>
   </si>
@@ -165,6 +165,15 @@
     <t>家常菜</t>
   </si>
   <si>
+    <t>青椒炒蛋</t>
+  </si>
+  <si>
+    <t>蒸水蛋</t>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+  </si>
+  <si>
     <t>面食</t>
   </si>
   <si>
@@ -175,6 +184,63 @@
   </si>
   <si>
     <t>星期二</t>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+  </si>
+  <si>
+    <t>葱花蛋饼</t>
+  </si>
+  <si>
+    <t>水煮肉片</t>
+  </si>
+  <si>
+    <t>红烧豆腐</t>
+  </si>
+  <si>
+    <t>葱油拌面</t>
+  </si>
+  <si>
+    <t>海鲜炒面</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>南瓜粥</t>
+  </si>
+  <si>
+    <t>香菇鸡肉粥</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>牛奶红枣燕麦粥</t>
+  </si>
+  <si>
+    <t>西红柿鸡蛋青菜汤面</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>薏米、荞麦米、红稻米、燕麦、大黄米、黑米、黑糯米、糙米、红豆、黑豆、莲子、红枣、葡萄干、枸杞、核桃仁、麦片</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>干锅土豆片</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期七</t>
+  </si>
+  <si>
+    <t>五谷杂粮粥</t>
   </si>
 </sst>
 </file>
@@ -183,8 +249,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -211,6 +277,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,17 +300,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,11 +322,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,8 +374,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,59 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -340,15 +406,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,187 +429,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,30 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -631,6 +691,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -642,15 +720,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +738,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,149 +761,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +923,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1189,18 +1306,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H41"/>
+  <dimension ref="A4:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
@@ -1530,7 +1648,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="1"/>
@@ -1538,153 +1656,650 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="5"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="5"/>
-      <c r="F32" s="1"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11"/>
+      <c r="C36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="11"/>
+      <c r="C57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>31</v>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
